--- a/Transportation Problem.xlsx
+++ b/Transportation Problem.xlsx
@@ -5,69 +5,121 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/sk18da_fsu_edu/Documents/1. MyFSU_OneDrive/Industrial Engineering PhD at FSU/Job/Github Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/sk18da_fsu_edu/Documents/1. MyFSU_OneDrive/Industrial Engineering PhD at FSU/Job/Github Projects/Excel Solver Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{5160655B-D026-4A7A-851E-F81061EA2CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{616E1CAA-2128-458A-95F6-279686F2A7AA}"/>
+  <xr:revisionPtr revIDLastSave="307" documentId="8_{5160655B-D026-4A7A-851E-F81061EA2CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D85D92A-A26D-4374-9179-A80B6CC9EC59}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3999DB02-AF9A-442F-9A1D-A4E745035265}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3999DB02-AF9A-442F-9A1D-A4E745035265}"/>
   </bookViews>
   <sheets>
-    <sheet name="Transportation Problem" sheetId="1" r:id="rId1"/>
-    <sheet name="Problem Statement" sheetId="2" r:id="rId2"/>
+    <sheet name="Problem Statement" sheetId="2" r:id="rId1"/>
+    <sheet name="Solution (With Dummy)" sheetId="1" r:id="rId2"/>
+    <sheet name="Solution (No Dummy)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Transportation Problem'!$D$11:$G$14</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Transportation Problem'!$D$15</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Transportation Problem'!$E$15</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Transportation Problem'!$F$15</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Transportation Problem'!$G$15</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Transportation Problem'!$H$11</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Transportation Problem'!$H$12</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Transportation Problem'!$H$13</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Transportation Problem'!$H$14</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">8</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Transportation Problem'!$J$17</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel7" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel8" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Transportation Problem'!$D$17</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Transportation Problem'!$E$17</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Transportation Problem'!$F$17</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Transportation Problem'!$G$17</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Transportation Problem'!$J$11</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Transportation Problem'!$J$12</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Transportation Problem'!$J$13</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'Transportation Problem'!$J$14</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Solution (No Dummy)'!$D$14:$G$16</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Solution (With Dummy)'!$D$13:$G$16</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Solution (No Dummy)'!$D$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Solution (With Dummy)'!$D$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Solution (No Dummy)'!$E$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Solution (With Dummy)'!$E$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Solution (No Dummy)'!$F$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Solution (With Dummy)'!$F$17</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Solution (No Dummy)'!$G$17</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Solution (With Dummy)'!$G$17</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Solution (No Dummy)'!$H$14</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Solution (With Dummy)'!$H$13</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Solution (No Dummy)'!$H$15</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Solution (With Dummy)'!$H$14</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">'Solution (No Dummy)'!$H$16</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Solution (With Dummy)'!$H$15</definedName>
+    <definedName name="solver_lhs8" localSheetId="2" hidden="1">'Solution (No Dummy)'!#REF!</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">'Solution (With Dummy)'!$H$16</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">8</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Solution (No Dummy)'!$G$22</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Solution (With Dummy)'!$J$19</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Solution (No Dummy)'!$D$19</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Solution (With Dummy)'!$D$19</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Solution (No Dummy)'!$E$19</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Solution (With Dummy)'!$E$19</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Solution (No Dummy)'!$F$19</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Solution (With Dummy)'!$F$19</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Solution (No Dummy)'!$G$19</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Solution (With Dummy)'!$G$19</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Solution (No Dummy)'!$J$14</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Solution (With Dummy)'!$J$13</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'Solution (No Dummy)'!$J$15</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Solution (With Dummy)'!$J$14</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">'Solution (No Dummy)'!$J$16</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Solution (With Dummy)'!$J$15</definedName>
+    <definedName name="solver_rhs8" localSheetId="2" hidden="1">'Solution (No Dummy)'!#REF!</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">'Solution (With Dummy)'!$J$16</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
   <si>
     <t>Berdoo</t>
   </si>
@@ -207,6 +259,24 @@
   </si>
   <si>
     <t>Solver Parameters</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>=SUM(D14:D16)</t>
+  </si>
+  <si>
+    <t>=SUM(E14:E16)</t>
+  </si>
+  <si>
+    <t>=SUM(F14:F16)</t>
+  </si>
+  <si>
+    <t>=SUM(G14:G16)</t>
+  </si>
+  <si>
+    <t>=SUMPRODUCT(D6:G8,D14:G16)</t>
   </si>
 </sst>
 </file>
@@ -298,12 +368,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,17 +377,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -330,32 +390,51 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,55 +453,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>140317</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980BDF48-59B2-5544-F57B-F7F08C53CB7C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4533900" y="4200525"/>
-          <a:ext cx="3028950" cy="3178792"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -601,6 +631,108 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>140317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980BDF48-59B2-5544-F57B-F7F08C53CB7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="4200525"/>
+          <a:ext cx="3028950" cy="3178792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>242437</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18F0359-2D5F-16AB-E8A9-F8FAC12E1915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="3619500"/>
+          <a:ext cx="3366637" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,461 +1051,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73833A40-F762-44C8-89D1-236074AD81C1}">
-  <dimension ref="B2:J29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <f>SUM(D11:G11)</f>
-        <v>50</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>40</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" ref="H12:H14" si="0">SUM(D12:G12)</f>
-        <v>60</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>30</v>
-      </c>
-      <c r="G14" s="3">
-        <v>20</v>
-      </c>
-      <c r="H14" s="12">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="11">
-        <f>SUM(D11:D14)</f>
-        <v>50</v>
-      </c>
-      <c r="E15" s="11">
-        <f t="shared" ref="E15:G15" si="1">SUM(E11:E14)</f>
-        <v>70</v>
-      </c>
-      <c r="F15" s="11">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="G15" s="11">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1">
-        <v>50</v>
-      </c>
-      <c r="E17" s="1">
-        <v>70</v>
-      </c>
-      <c r="F17" s="1">
-        <v>30</v>
-      </c>
-      <c r="G17" s="1">
-        <v>60</v>
-      </c>
-      <c r="J17" s="20">
-        <f>SUMPRODUCT(D4:G7,D11:G14)</f>
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B4:B7"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C712BED2-4836-4973-B428-B65537EBD6A9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1383,10 +1060,936 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73833A40-F762-44C8-89D1-236074AD81C1}">
+  <dimension ref="A1:AS31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="16.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="13"/>
+    <col min="5" max="5" width="10.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="13"/>
+    <col min="7" max="7" width="10" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="4" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="13" customWidth="1"/>
+    <col min="11" max="45" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <f>SUM(D13:G13)</f>
+        <v>50</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>40</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" ref="H14:H16" si="0">SUM(D14:G14)</f>
+        <v>60</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1">
+        <v>20</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7">
+        <f>SUM(D13:D16)</f>
+        <v>50</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" ref="E17:G17" si="1">SUM(E13:E16)</f>
+        <v>70</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="25"/>
+      <c r="C19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="20">
+        <v>50</v>
+      </c>
+      <c r="E19" s="20">
+        <v>70</v>
+      </c>
+      <c r="F19" s="20">
+        <v>30</v>
+      </c>
+      <c r="G19" s="20">
+        <v>60</v>
+      </c>
+      <c r="J19" s="12">
+        <f>SUMPRODUCT(D6:G9,D13:G16)</f>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="25"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85A1915-6D65-48AD-A4CE-BA0C60E02B13}">
+  <dimension ref="A1:AS30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="16.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="13"/>
+    <col min="5" max="5" width="10.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="13"/>
+    <col min="7" max="7" width="10" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="4" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="13" customWidth="1"/>
+    <col min="11" max="45" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <f>SUM(D14:G14)</f>
+        <v>50</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>40</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" ref="H15:H16" si="0">SUM(D15:G15)</f>
+        <v>60</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7">
+        <f>SUM(D14:D16)</f>
+        <v>50</v>
+      </c>
+      <c r="E17" s="7">
+        <f>SUM(E14:E16)</f>
+        <v>70</v>
+      </c>
+      <c r="F17" s="7">
+        <f>SUM(F14:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f>SUM(G14:G16)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="20">
+        <v>50</v>
+      </c>
+      <c r="E19" s="20">
+        <v>70</v>
+      </c>
+      <c r="F19" s="20">
+        <v>30</v>
+      </c>
+      <c r="G19" s="20">
+        <v>60</v>
+      </c>
+      <c r="J19" s="12">
+        <f>SUMPRODUCT(D6:G8,D14:G16)</f>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Transportation Problem.xlsx
+++ b/Transportation Problem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/sk18da_fsu_edu/Documents/1. MyFSU_OneDrive/Industrial Engineering PhD at FSU/Job/Github Projects/Excel Solver Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="8_{5160655B-D026-4A7A-851E-F81061EA2CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D85D92A-A26D-4374-9179-A80B6CC9EC59}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="8_{5160655B-D026-4A7A-851E-F81061EA2CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1C58FE-CDB9-4D2F-A3B4-86E8B4F8FAA8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3999DB02-AF9A-442F-9A1D-A4E745035265}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3999DB02-AF9A-442F-9A1D-A4E745035265}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem Statement" sheetId="2" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>Calorie River</t>
   </si>
   <si>
-    <t>Unit Cost</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>=SUMPRODUCT(D6:G8,D14:G16)</t>
+  </si>
+  <si>
+    <t>Unit Shipment Cost</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,21 +403,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,11 +414,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,10 +726,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1054,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C712BED2-4836-4973-B428-B65537EBD6A9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -1072,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73833A40-F762-44C8-89D1-236074AD81C1}">
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,15 +1113,15 @@
     <row r="3" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -1147,8 +1140,8 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>8</v>
+      <c r="B6" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -1167,7 +1160,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1178,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1203,9 +1196,9 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1222,15 +1215,15 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
@@ -1248,16 +1241,16 @@
         <v>3</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>8</v>
+      <c r="B13" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -1278,15 +1271,15 @@
         <f>SUM(D13:G13)</f>
         <v>50</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="20">
+      <c r="I13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="15">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1306,15 +1299,15 @@
         <f t="shared" ref="H14:H16" si="0">SUM(D14:G14)</f>
         <v>60</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="20">
+      <c r="I14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="15">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1334,17 +1327,17 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="20">
+      <c r="I15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="15">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1362,17 +1355,17 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="20">
+      <c r="I16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="15">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
+      <c r="B17" s="19"/>
+      <c r="C17" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="7">
         <f>SUM(D13:D16)</f>
@@ -1392,39 +1385,39 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="20">
+      <c r="B19" s="19"/>
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15">
         <v>50</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="15">
         <v>70</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="15">
         <v>30</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="15">
         <v>60</v>
       </c>
       <c r="J19" s="12">
@@ -1433,119 +1426,114 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
+      <c r="B20" s="19"/>
       <c r="J20"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>38</v>
+      <c r="B21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C22:E22"/>
@@ -1554,6 +1542,11 @@
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1565,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85A1915-6D65-48AD-A4CE-BA0C60E02B13}">
   <dimension ref="A1:AS30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,15 +1606,15 @@
     <row r="3" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
@@ -1640,8 +1633,8 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>8</v>
+      <c r="B6" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -1660,7 +1653,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +1671,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1699,15 +1692,15 @@
     <row r="10" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
@@ -1725,16 +1718,16 @@
         <v>3</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>8</v>
+      <c r="B14" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1755,15 +1748,15 @@
         <f>SUM(D14:G14)</f>
         <v>50</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="20">
+      <c r="I14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="15">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1783,15 +1776,15 @@
         <f t="shared" ref="H15:H16" si="0">SUM(D15:G15)</f>
         <v>60</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="20">
+      <c r="I15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="15">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1811,16 +1804,16 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="20">
+      <c r="I16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="15">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="19" t="s">
-        <v>13</v>
+      <c r="C17" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="7">
         <f>SUM(D14:D16)</f>
@@ -1840,37 +1833,37 @@
       </c>
     </row>
     <row r="18" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>39</v>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="20">
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15">
         <v>50</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="15">
         <v>70</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="15">
         <v>30</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="15">
         <v>60</v>
       </c>
       <c r="J19" s="12">
@@ -1882,100 +1875,105 @@
       <c r="J20"/>
     </row>
     <row r="21" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>38</v>
+      <c r="B21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
@@ -1983,11 +1981,6 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
